--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H2">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I2">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J2">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1972836666666666</v>
+        <v>0.100491</v>
       </c>
       <c r="N2">
-        <v>0.5918509999999999</v>
+        <v>0.301473</v>
       </c>
       <c r="O2">
-        <v>0.08392655655245007</v>
+        <v>0.03802271729753455</v>
       </c>
       <c r="P2">
-        <v>0.08392655655245006</v>
+        <v>0.03802271729753454</v>
       </c>
       <c r="Q2">
-        <v>0.837197571152222</v>
+        <v>0.4161486396199999</v>
       </c>
       <c r="R2">
-        <v>7.534778140369998</v>
+        <v>3.74533775658</v>
       </c>
       <c r="S2">
-        <v>0.02072353521609637</v>
+        <v>0.009620626962465175</v>
       </c>
       <c r="T2">
-        <v>0.02072353521609637</v>
+        <v>0.009620626962465174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H3">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I3">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J3">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.766003</v>
       </c>
       <c r="O3">
-        <v>0.8176395357295955</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="P3">
-        <v>0.8176395357295954</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="Q3">
-        <v>8.156248290289998</v>
+        <v>7.959300847819998</v>
       </c>
       <c r="R3">
-        <v>73.40623461260999</v>
+        <v>71.63370763037999</v>
       </c>
       <c r="S3">
-        <v>0.2018953524225141</v>
+        <v>0.184005081474809</v>
       </c>
       <c r="T3">
-        <v>0.2018953524225141</v>
+        <v>0.184005081474809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H4">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I4">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J4">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1985273333333334</v>
+        <v>0.6046453333333334</v>
       </c>
       <c r="N4">
-        <v>0.5955820000000001</v>
+        <v>1.813936</v>
       </c>
       <c r="O4">
-        <v>0.08445562549462844</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="P4">
-        <v>0.08445562549462841</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="Q4">
-        <v>0.8424752240377777</v>
+        <v>2.503929037617778</v>
       </c>
       <c r="R4">
-        <v>7.58227701634</v>
+        <v>22.53536133856</v>
       </c>
       <c r="S4">
-        <v>0.02085417537703428</v>
+        <v>0.05788644949891444</v>
       </c>
       <c r="T4">
-        <v>0.02085417537703428</v>
+        <v>0.05788644949891443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H5">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I5">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J5">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03285833333333334</v>
+        <v>0.01578266666666667</v>
       </c>
       <c r="N5">
-        <v>0.09857500000000001</v>
+        <v>0.047348</v>
       </c>
       <c r="O5">
-        <v>0.01397828222332609</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="P5">
-        <v>0.01397828222332608</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="Q5">
-        <v>0.1394383900277778</v>
+        <v>0.06535844267555554</v>
       </c>
       <c r="R5">
-        <v>1.25494551025</v>
+        <v>0.5882259840799999</v>
       </c>
       <c r="S5">
-        <v>0.003451582381252546</v>
+        <v>0.001510972609218076</v>
       </c>
       <c r="T5">
-        <v>0.003451582381252546</v>
+        <v>0.001510972609218076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>17.596475</v>
       </c>
       <c r="I6">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J6">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1972836666666666</v>
+        <v>0.100491</v>
       </c>
       <c r="N6">
-        <v>0.5918509999999999</v>
+        <v>0.301473</v>
       </c>
       <c r="O6">
-        <v>0.08392655655245007</v>
+        <v>0.03802271729753455</v>
       </c>
       <c r="P6">
-        <v>0.08392655655245006</v>
+        <v>0.03802271729753454</v>
       </c>
       <c r="Q6">
-        <v>1.157165702802778</v>
+        <v>0.5894291230750001</v>
       </c>
       <c r="R6">
-        <v>10.414491325225</v>
+        <v>5.304862107675</v>
       </c>
       <c r="S6">
-        <v>0.02864385303923923</v>
+        <v>0.01362656794720186</v>
       </c>
       <c r="T6">
-        <v>0.02864385303923923</v>
+        <v>0.01362656794720186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.596475</v>
       </c>
       <c r="I7">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J7">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.766003</v>
       </c>
       <c r="O7">
-        <v>0.8176395357295955</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="P7">
-        <v>0.8176395357295954</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="Q7">
         <v>11.273480848825</v>
@@ -883,10 +883,10 @@
         <v>101.461327639425</v>
       </c>
       <c r="S7">
-        <v>0.2790576387567353</v>
+        <v>0.2606231127274077</v>
       </c>
       <c r="T7">
-        <v>0.2790576387567353</v>
+        <v>0.2606231127274076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.596475</v>
       </c>
       <c r="I8">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J8">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1985273333333334</v>
+        <v>0.6046453333333334</v>
       </c>
       <c r="N8">
-        <v>0.5955820000000001</v>
+        <v>1.813936</v>
       </c>
       <c r="O8">
-        <v>0.08445562549462844</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="P8">
-        <v>0.08445562549462841</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="Q8">
-        <v>1.164460419272223</v>
+        <v>3.546542163955556</v>
       </c>
       <c r="R8">
-        <v>10.48014377345</v>
+        <v>31.9188794756</v>
       </c>
       <c r="S8">
-        <v>0.02882442249960917</v>
+        <v>0.08198983708615883</v>
       </c>
       <c r="T8">
-        <v>0.02882442249960916</v>
+        <v>0.08198983708615881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>17.596475</v>
       </c>
       <c r="I9">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J9">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03285833333333334</v>
+        <v>0.01578266666666667</v>
       </c>
       <c r="N9">
-        <v>0.09857500000000001</v>
+        <v>0.047348</v>
       </c>
       <c r="O9">
-        <v>0.01397828222332609</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="P9">
-        <v>0.01397828222332608</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="Q9">
-        <v>0.1927302803472223</v>
+        <v>0.09257309981111113</v>
       </c>
       <c r="R9">
-        <v>1.734572523125</v>
+        <v>0.8331578983000001</v>
       </c>
       <c r="S9">
-        <v>0.004770740969167929</v>
+        <v>0.002140127769863682</v>
       </c>
       <c r="T9">
-        <v>0.004770740969167929</v>
+        <v>0.002140127769863682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H10">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I10">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J10">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1972836666666666</v>
+        <v>0.100491</v>
       </c>
       <c r="N10">
-        <v>0.5918509999999999</v>
+        <v>0.301473</v>
       </c>
       <c r="O10">
-        <v>0.08392655655245007</v>
+        <v>0.03802271729753455</v>
       </c>
       <c r="P10">
-        <v>0.08392655655245006</v>
+        <v>0.03802271729753454</v>
       </c>
       <c r="Q10">
-        <v>0.1881449611368889</v>
+        <v>0.046988687181</v>
       </c>
       <c r="R10">
-        <v>1.693304650232</v>
+        <v>0.422898184629</v>
       </c>
       <c r="S10">
-        <v>0.004657238461030445</v>
+        <v>0.001086296067763583</v>
       </c>
       <c r="T10">
-        <v>0.004657238461030444</v>
+        <v>0.001086296067763583</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H11">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I11">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J11">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.766003</v>
       </c>
       <c r="O11">
-        <v>0.8176395357295955</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="P11">
-        <v>0.8176395357295954</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="Q11">
-        <v>1.832968788344</v>
+        <v>0.898710369591</v>
       </c>
       <c r="R11">
-        <v>16.496719095096</v>
+        <v>8.088393326319</v>
       </c>
       <c r="S11">
-        <v>0.04537231657632906</v>
+        <v>0.02077660813941223</v>
       </c>
       <c r="T11">
-        <v>0.04537231657632905</v>
+        <v>0.02077660813941223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H12">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I12">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J12">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1985273333333334</v>
+        <v>0.6046453333333334</v>
       </c>
       <c r="N12">
-        <v>0.5955820000000001</v>
+        <v>1.813936</v>
       </c>
       <c r="O12">
-        <v>0.08445562549462844</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="P12">
-        <v>0.08445562549462841</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="Q12">
-        <v>0.1893310178471111</v>
+        <v>0.2827267160586667</v>
       </c>
       <c r="R12">
-        <v>1.703979160624</v>
+        <v>2.544540444528</v>
       </c>
       <c r="S12">
-        <v>0.004686597466418804</v>
+        <v>0.006536146003041079</v>
       </c>
       <c r="T12">
-        <v>0.004686597466418802</v>
+        <v>0.006536146003041077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H13">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I13">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J13">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03285833333333334</v>
+        <v>0.01578266666666667</v>
       </c>
       <c r="N13">
-        <v>0.09857500000000001</v>
+        <v>0.047348</v>
       </c>
       <c r="O13">
-        <v>0.01397828222332609</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="P13">
-        <v>0.01397828222332608</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="Q13">
-        <v>0.03133624771111112</v>
+        <v>0.007379832889333334</v>
       </c>
       <c r="R13">
-        <v>0.2820262294000001</v>
+        <v>0.066418496004</v>
       </c>
       <c r="S13">
-        <v>0.0007756805028564219</v>
+        <v>0.0001706087981891252</v>
       </c>
       <c r="T13">
-        <v>0.0007756805028564218</v>
+        <v>0.0001706087981891252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H14">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I14">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J14">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1972836666666666</v>
+        <v>0.100491</v>
       </c>
       <c r="N14">
-        <v>0.5918509999999999</v>
+        <v>0.301473</v>
       </c>
       <c r="O14">
-        <v>0.08392655655245007</v>
+        <v>0.03802271729753455</v>
       </c>
       <c r="P14">
-        <v>0.08392655655245006</v>
+        <v>0.03802271729753454</v>
       </c>
       <c r="Q14">
-        <v>1.207989986770666</v>
+        <v>0.592139465836</v>
       </c>
       <c r="R14">
-        <v>10.871909880936</v>
+        <v>5.329255192524</v>
       </c>
       <c r="S14">
-        <v>0.02990192983608402</v>
+        <v>0.01368922632010393</v>
       </c>
       <c r="T14">
-        <v>0.02990192983608401</v>
+        <v>0.01368922632010393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H15">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I15">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J15">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.766003</v>
       </c>
       <c r="O15">
-        <v>0.8176395357295955</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="P15">
-        <v>0.8176395357295954</v>
+        <v>0.7272263254279357</v>
       </c>
       <c r="Q15">
-        <v>11.768627387112</v>
+        <v>11.325319137796</v>
       </c>
       <c r="R15">
-        <v>105.917646484008</v>
+        <v>101.927872240164</v>
       </c>
       <c r="S15">
-        <v>0.2913142279740171</v>
+        <v>0.261821523086307</v>
       </c>
       <c r="T15">
-        <v>0.291314227974017</v>
+        <v>0.261821523086307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H16">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I16">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J16">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1985273333333334</v>
+        <v>0.6046453333333334</v>
       </c>
       <c r="N16">
-        <v>0.5955820000000001</v>
+        <v>1.813936</v>
       </c>
       <c r="O16">
-        <v>0.08445562549462844</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="P16">
-        <v>0.08445562549462841</v>
+        <v>0.2287792794838033</v>
       </c>
       <c r="Q16">
-        <v>1.215605097061333</v>
+        <v>3.562850053240889</v>
       </c>
       <c r="R16">
-        <v>10.940445873552</v>
+        <v>32.065650479168</v>
       </c>
       <c r="S16">
-        <v>0.03009043015156618</v>
+        <v>0.08236684689568899</v>
       </c>
       <c r="T16">
-        <v>0.03009043015156617</v>
+        <v>0.08236684689568897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H17">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I17">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J17">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03285833333333334</v>
+        <v>0.01578266666666667</v>
       </c>
       <c r="N17">
-        <v>0.09857500000000001</v>
+        <v>0.047348</v>
       </c>
       <c r="O17">
-        <v>0.01397828222332609</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="P17">
-        <v>0.01397828222332608</v>
+        <v>0.005971677790726419</v>
       </c>
       <c r="Q17">
-        <v>0.2011952551333333</v>
+        <v>0.09299877411377779</v>
       </c>
       <c r="R17">
-        <v>1.8107572962</v>
+        <v>0.8369889670240001</v>
       </c>
       <c r="S17">
-        <v>0.00498027837004919</v>
+        <v>0.002149968613455536</v>
       </c>
       <c r="T17">
-        <v>0.004980278370049189</v>
+        <v>0.002149968613455536</v>
       </c>
     </row>
   </sheetData>
